--- a/mosip_master/xlsx/module_detail.xlsx
+++ b/mosip_master/xlsx/module_detail.xlsx
@@ -410,8 +410,8 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/module_detail.xlsx
+++ b/mosip_master/xlsx/module_detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -116,45 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">Portail Web pour les services de génération de post-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">التسجيل المسبق</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بوابة الويب للتسجيلات المسبقة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عميل التسجيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تطبيق سطح المكتب للتسجيلات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معالج التسجيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">طلب عملية ما بعد التسجيل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصادقة الهوية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">طلب مصادقة مزود خدمة الطرف الثالث</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معرف التحكم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بوابة الويب لتكوين التطبيقات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بوابة المقيمين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بوابة الويب لخدمات إنشاء معرف البريد</t>
   </si>
 </sst>
 </file>
@@ -245,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,10 +225,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -287,17 +244,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -519,108 +474,6 @@
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>10002</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>10003</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>10004</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>10005</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>10006</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/mosip_master/xlsx/module_detail.xlsx
+++ b/mosip_master/xlsx/module_detail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -155,123 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">بوابة الويب لخدمات إنشاء معرف البريد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪೂರ್ವ ನೋಂದಣಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪೂರ್ವ-ನೋಂದಣಿಗಾಗಿ ವೆಬ್ ಪೋರ್ಟಲ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನೋಂದಣಿ ಗ್ರಾಹಕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನೋಂದಣಿಗಾಗಿ ಡೆಸ್ಕ್‌ಟಾಪ್ ಅಪ್ಲಿಕೇಶನ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನೋಂದಣಿ ಪ್ರೊಸೆಸರ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನೋಂದಣಿ ನಂತರದ ಪ್ರಕ್ರಿಯೆಗಾಗಿ ಅರ್ಜಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID ದೃಢೀಕರಣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಮೂರನೇ ವ್ಯಕ್ತಿಯ ಸೇವಾ ಪೂರೈಕೆದಾರರ ದೃಢೀಕರಣಕ್ಕಾಗಿ ಅರ್ಜಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID ನಿಯಂತ್ರಣ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಅಪ್ಲಿಕೇಶನ್‌ಗಳನ್ನು ಕಾನ್ಫಿಗರ್ ಮಾಡಲು ವೆಬ್ ಪೋರ್ಟಲ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನಿವಾಸ ಪೋರ್ಟಲ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪೋಸ್ಟ್ ID ಜನರೇಷನ್ ಸೇವೆಗಳಿಗಾಗಿ ವೆಬ್ ಪೋರ್ಟಲ್</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पूर्व-पंजीकरण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पूर्व पंजीकरण के लिए वेब पोर्टल</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पंजीकरण ग्राहक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पंजीकरण के लिए डेस्कटॉप आवेदन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पंजीकरण प्रोसेसर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पंजीकरण के बाद की प्रक्रिया के लिए आवेदन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">आईडी प्रमाणीकरण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">तृतीय पक्ष सेवा प्रदाता प्रमाणीकरण के लिए आवेदन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">आईडी नियंत्रण</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अनुप्रयोगों को कॉन्फ़िगर करने के लिए वेब पोर्टल</t>
-  </si>
-  <si>
-    <t xml:space="preserve">निवासी पोर्टल</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पोस्ट आईडी जनरेशन सेवाओं के लिए वेब पोर्टल</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">முன் பதிவு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">முன் பதிவுகளுக்கான இணைய போர்டல்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பதிவு வாடிக்கையாளர்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பதிவுகளுக்கான டெஸ்க்டாப் பயன்பாடு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பதிவு செயலி</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பதிவுக்குப் பிந்தைய செயல்முறைக்கான விண்ணப்பம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ஐடி அங்கீகாரம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">மூன்றாம் தரப்பு சேவை வழங்குநரின் அங்கீகாரத்திற்கான விண்ணப்பம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">அடையாளக் கட்டுப்பாடு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பயன்பாடுகளை உள்ளமைப்பதற்கான இணைய போர்டல்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">குடியுரிமை போர்ட்டல்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">போஸ்ட் ஐடி உருவாக்கும் சேவைகளுக்கான இணைய போர்டல்</t>
   </si>
 </sst>
 </file>
@@ -362,7 +245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,10 +270,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +287,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,312 +624,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>10002</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>10003</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>10004</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>10005</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>10006</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>10002</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>10003</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>10004</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>10005</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>10006</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>10002</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>10003</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>10004</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>10005</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>10006</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
